--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Kng1-Itgb2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Kng1-Itgb2.xlsx
@@ -558,28 +558,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.1439186666666667</v>
+        <v>0.5804443333333333</v>
       </c>
       <c r="N2">
-        <v>0.431756</v>
+        <v>1.741333</v>
       </c>
       <c r="O2">
-        <v>0.0006023827659685291</v>
+        <v>0.002431273010151717</v>
       </c>
       <c r="P2">
-        <v>0.0006028968122478276</v>
+        <v>0.002435427107574628</v>
       </c>
       <c r="Q2">
-        <v>0.02182536174577778</v>
+        <v>0.08802477011288889</v>
       </c>
       <c r="R2">
-        <v>0.196428255712</v>
+        <v>0.7922229310160001</v>
       </c>
       <c r="S2">
-        <v>0.0006023827659685291</v>
+        <v>0.002431273010151717</v>
       </c>
       <c r="T2">
-        <v>0.0006028968122478276</v>
+        <v>0.002435427107574628</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -626,10 +626,10 @@
         <v>0.340352</v>
       </c>
       <c r="O3">
-        <v>0.0004748565837253468</v>
+        <v>0.0004752041289926495</v>
       </c>
       <c r="P3">
-        <v>0.0004752618049133599</v>
+        <v>0.00047601606752829</v>
       </c>
       <c r="Q3">
         <v>0.01720486923377778</v>
@@ -638,10 +638,10 @@
         <v>0.154843823104</v>
       </c>
       <c r="S3">
-        <v>0.0004748565837253468</v>
+        <v>0.0004752041289926495</v>
       </c>
       <c r="T3">
-        <v>0.0004752618049133599</v>
+        <v>0.00047601606752829</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>99.31538866666666</v>
+        <v>136.1000366666667</v>
       </c>
       <c r="N4">
-        <v>297.946166</v>
+        <v>408.30011</v>
       </c>
       <c r="O4">
-        <v>0.4156922789371741</v>
+        <v>0.5700742118164518</v>
       </c>
       <c r="P4">
-        <v>0.4160470119763526</v>
+        <v>0.5710482463260632</v>
       </c>
       <c r="Q4">
-        <v>15.06124490155911</v>
+        <v>20.63966129385778</v>
       </c>
       <c r="R4">
-        <v>135.551204114032</v>
+        <v>185.75695164472</v>
       </c>
       <c r="S4">
-        <v>0.4156922789371741</v>
+        <v>0.5700742118164518</v>
       </c>
       <c r="T4">
-        <v>0.4160470119763526</v>
+        <v>0.5710482463260632</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -744,28 +744,28 @@
         <v>0.5</v>
       </c>
       <c r="M5">
-        <v>0.6111180000000001</v>
+        <v>1.221658</v>
       </c>
       <c r="N5">
-        <v>1.222236</v>
+        <v>2.443316</v>
       </c>
       <c r="O5">
-        <v>0.002557881890510999</v>
+        <v>0.005117086949542552</v>
       </c>
       <c r="P5">
-        <v>0.001706709781021076</v>
+        <v>0.003417220037046797</v>
       </c>
       <c r="Q5">
-        <v>0.09267645211200001</v>
+        <v>0.1852652501386667</v>
       </c>
       <c r="R5">
-        <v>0.556058712672</v>
+        <v>1.111591500832</v>
       </c>
       <c r="S5">
-        <v>0.002557881890510999</v>
+        <v>0.005117086949542552</v>
       </c>
       <c r="T5">
-        <v>0.001706709781021076</v>
+        <v>0.003417220037046797</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>138.7317683333333</v>
+        <v>100.7253213333333</v>
       </c>
       <c r="N6">
-        <v>416.195305</v>
+        <v>302.175964</v>
       </c>
       <c r="O6">
-        <v>0.5806725998226211</v>
+        <v>0.4219022240948613</v>
       </c>
       <c r="P6">
-        <v>0.5811681196254651</v>
+        <v>0.4226230904617871</v>
       </c>
       <c r="Q6">
-        <v>21.03876515559556</v>
+        <v>15.27506213041423</v>
       </c>
       <c r="R6">
-        <v>189.34888640036</v>
+        <v>137.475559173728</v>
       </c>
       <c r="S6">
-        <v>0.5806725998226211</v>
+        <v>0.4219022240948613</v>
       </c>
       <c r="T6">
-        <v>0.5811681196254651</v>
+        <v>0.4226230904617871</v>
       </c>
     </row>
   </sheetData>
